--- a/卒業制作連絡/卒業制作採点留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作採点留学生2019.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.16.201\01 生徒用\大橋校\留学生\修了制作\卒業制作連絡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16890" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="採点AM" sheetId="7" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -584,11 +589,81 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リンクボタンを押すようになっていない。
+説明が上部に来ていない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLのエラーを修正する
+メニューの修正
+JPEGの色味の修正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真に文字を追加する
+HTMLはきれい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字の色
+写真のスペーシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューについて商品名が一致していない。
+値段は、カスタマイズの対象
+HTMLのかけているタグ
+ページデザインをオリジナルに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLが致命的エラーを起こしている
+ファイルが分割されていない
+写真が同じもの？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ内リンク
+自分がわかっているものについては写真の説明がない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ内リンク
+テキストの文章
+写真も使いまわし。
+テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気な感じがしない。
+タグを治す
+デザインのブラッシュアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語の説明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上田 2019/12/23</t>
+    <rPh sb="0" eb="2">
+      <t>ウエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※12/24 発表</t>
+    <rPh sb="7" eb="9">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1108,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1121,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,8 +1205,8 @@
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="4" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
     <col min="9" max="9" width="3.25" customWidth="1"/>
     <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
@@ -1220,8 +1295,9 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="I4" s="9">
         <v>19</v>
       </c>
@@ -1252,8 +1328,9 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="I5" s="9">
         <v>20</v>
       </c>
@@ -1284,8 +1361,9 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="I6" s="9">
         <v>21</v>
       </c>
@@ -1316,8 +1394,9 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="I7" s="9">
         <v>22</v>
       </c>
@@ -1348,8 +1427,9 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="I8" s="9">
         <v>23</v>
       </c>
@@ -1380,8 +1460,9 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" s="9">
         <v>24</v>
       </c>
@@ -1412,8 +1493,9 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="I10" s="9">
         <v>25</v>
       </c>
@@ -1444,8 +1526,9 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="I11" s="9">
         <v>26</v>
       </c>
@@ -1476,8 +1559,9 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="I12" s="9">
         <v>27</v>
       </c>
@@ -1508,8 +1592,9 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="I13" s="9">
         <v>28</v>
       </c>
@@ -1726,9 +1811,9 @@
   </sheetPr>
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1801,7 +1886,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="26"/>
@@ -1816,7 +1901,7 @@
         <v>58</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -1848,7 +1933,9 @@
       <c r="F3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="I3" s="24">
         <v>17</v>
       </c>
@@ -1861,7 +1948,9 @@
       <c r="L3" s="10"/>
       <c r="M3" s="14"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2420,7 +2509,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="19"/>
       <c r="I18" s="10"/>
       <c r="K18" s="26"/>
       <c r="L18" s="16"/>

--- a/卒業制作連絡/卒業制作採点留学生2019.xlsx
+++ b/卒業制作連絡/卒業制作採点留学生2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="採点AM" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="見出しの調整" localSheetId="0">採点AM!$L$3:$O$19</definedName>
     <definedName name="見出しの調整">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>ボガティ　サミル</t>
     <phoneticPr fontId="1"/>
@@ -240,10 +240,6 @@
   </si>
   <si>
     <t>ダンビバ　フーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グェン　ティホンハン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -278,13 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上田</t>
-    <rPh sb="0" eb="2">
-      <t>ウエダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラマ　ダワ　チリン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,10 +287,6 @@
   </si>
   <si>
     <t>チュ　ティ　エンリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グエン　マイン　キエン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -659,11 +644,394 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>65
+各ページ、リンクボタンのマージンを揃える</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">65
+レイアウトは良い。
+各ページタイトルの上にサブタイトル
+</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">55
+ホテルはランキングとともに紹介。他ページもレイアウト再考
+</t>
+    <rPh sb="16" eb="18">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの目的を明確に。リンクボタンの位置</t>
+    <rPh sb="4" eb="6">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45
+サイトのタイトルを表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75
+技術を操作性に結び付ける</t>
+    <rPh sb="3" eb="5">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソウサセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45
+サイトのタイトルを表示ページトップ調整</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+写真とキャプションの関係を調整</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+サイトのコンセプトを踏まえたタイトルをつける事</t>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60
+写真とキャプションのバランス</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+各ページのタイトル名　再考</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+サイトのコンセプトを再考
+時系列でリンクボタン</t>
+    <rPh sb="13" eb="15">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジケイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70
+写真とコメントの配置</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20
+サイトのタイトルを表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20
+写真に対する説明文</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40
+写真とキャプションの配置</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40
+メニューページの写真を拡大する</t>
+    <rPh sb="11" eb="13">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30
+背景色と文字色の関係</t>
+    <rPh sb="3" eb="6">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジショク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30
+サイトのタイトルを表示
+css活用</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30
+ページ内リンクになっている</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20
+ページ内リンクになっている</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+サイトタイトルを各ページに</t>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+サイトタイトルを各ページに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60
+写真に対する説明文</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50
+各ページの作りこみ</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+トップページの説明
+両端揃え
+おすすめページの説明文</t>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウハシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60
+ページリンク確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30
+トップページのタイトルとイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グエン　マイン
+　キエン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60
+footerタグ設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50
+写真サイズ調整</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65
+マージン調整</t>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50
+サイトタイトルとイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50
+サイトタイトルとイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50
+ページの内容を整理</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70
+情報を整理</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グェン　
+ティホンハン</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,6 +1272,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1196,8 +1570,9 @@
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,28 +1599,28 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1259,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="16"/>
@@ -1274,7 +1649,9 @@
       <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M3" s="19"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -1291,12 +1668,12 @@
         <v>26</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="7"/>
       <c r="G4" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I4" s="9">
         <v>19</v>
@@ -1305,9 +1682,11 @@
         <v>17743</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="M4" s="14"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1324,12 +1703,12 @@
         <v>51</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="7"/>
       <c r="G5" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I5" s="9">
         <v>20</v>
@@ -1340,7 +1719,9 @@
       <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1357,12 +1738,12 @@
         <v>3</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I6" s="9">
         <v>21</v>
@@ -1373,7 +1754,9 @@
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1390,12 +1773,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="7"/>
       <c r="G7" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I7" s="9">
         <v>22</v>
@@ -1406,7 +1789,9 @@
       <c r="K7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1420,15 +1805,15 @@
         <v>17664</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="7"/>
       <c r="G8" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I8" s="9">
         <v>23</v>
@@ -1439,7 +1824,9 @@
       <c r="K8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1456,12 +1843,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
       <c r="G9" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I9" s="9">
         <v>24</v>
@@ -1472,7 +1859,9 @@
       <c r="K9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1489,12 +1878,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="7"/>
       <c r="G10" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I10" s="9">
         <v>25</v>
@@ -1505,7 +1894,9 @@
       <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1522,12 +1913,12 @@
         <v>7</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="7"/>
       <c r="G11" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" s="9">
         <v>26</v>
@@ -1538,7 +1929,9 @@
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1555,12 +1948,12 @@
         <v>8</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
       <c r="G12" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I12" s="9">
         <v>27</v>
@@ -1571,7 +1964,9 @@
       <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1588,12 +1983,12 @@
         <v>9</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I13" s="9">
         <v>28</v>
@@ -1604,7 +1999,9 @@
       <c r="K13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1621,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="7"/>
@@ -1652,7 +2049,9 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1666,7 +2065,9 @@
       <c r="K15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1682,7 +2083,9 @@
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1693,8 +2096,8 @@
       <c r="J16" s="4">
         <v>17937</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>53</v>
+      <c r="K16" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1726,7 +2129,9 @@
       <c r="K17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="7"/>
@@ -1742,7 +2147,9 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1756,7 +2163,9 @@
       <c r="K18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1772,7 +2181,9 @@
       <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="34" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="7"/>
       <c r="G19" s="16"/>
@@ -1784,15 +2195,20 @@
         <v>17994</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="7"/>
       <c r="O19" s="16"/>
       <c r="P19" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A1:P2">
+    <sortCondition sortBy="icon" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:A19 I3:I19">
     <cfRule type="cellIs" priority="1" operator="greaterThan">
@@ -1811,9 +2227,9 @@
   </sheetPr>
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1857,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F1" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I1"/>
       <c r="J1" s="25"/>
@@ -1877,31 +2293,31 @@
     </row>
     <row r="2" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -1927,14 +2343,14 @@
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I3" s="24">
         <v>17</v>
@@ -1945,11 +2361,13 @@
       <c r="K3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="M3" s="14"/>
       <c r="N3" s="7"/>
       <c r="O3" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1969,14 +2387,14 @@
         <v>17510</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7"/>
       <c r="I4" s="24">
@@ -1988,7 +2406,9 @@
       <c r="K4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="M4" s="14"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2012,11 +2432,11 @@
         <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7"/>
       <c r="I5" s="24">
@@ -2028,7 +2448,9 @@
       <c r="K5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -2052,11 +2474,11 @@
         <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="24">
@@ -2068,7 +2490,9 @@
       <c r="K6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -2094,11 +2518,11 @@
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7"/>
       <c r="I7" s="24">
@@ -2110,7 +2534,9 @@
       <c r="K7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -2135,11 +2561,11 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7"/>
       <c r="I8" s="24">
@@ -2151,7 +2577,9 @@
       <c r="K8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2175,6 +2603,9 @@
       <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
+      <c r="D9" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
@@ -2185,9 +2616,11 @@
         <v>17851</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2210,6 +2643,9 @@
       <c r="C10" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="D10" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
@@ -2219,10 +2655,12 @@
       <c r="J10" s="27">
         <v>17862</v>
       </c>
-      <c r="K10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="10"/>
+      <c r="K10" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2248,11 +2686,11 @@
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7"/>
       <c r="I11" s="24">
@@ -2262,9 +2700,11 @@
         <v>17865</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2288,11 +2728,11 @@
         <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G12" s="7"/>
       <c r="I12" s="24">
@@ -2302,9 +2742,11 @@
         <v>17880</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2327,7 +2769,9 @@
       <c r="C13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
@@ -2340,7 +2784,9 @@
       <c r="K13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10">
+        <v>40</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -2363,7 +2809,9 @@
       <c r="C14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
@@ -2376,7 +2824,9 @@
       <c r="K14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10">
+        <v>30</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -2400,7 +2850,9 @@
       <c r="C15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
@@ -2411,9 +2863,11 @@
         <v>17953</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2436,7 +2890,9 @@
       <c r="C16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
@@ -2447,9 +2903,11 @@
         <v>17965</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="L16" s="10">
+        <v>65</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="7"/>
@@ -2471,7 +2929,9 @@
       <c r="C17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
@@ -2482,9 +2942,11 @@
         <v>17985</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2506,7 +2968,9 @@
       <c r="C18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="10">
+        <v>40</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="19"/>
